--- a/Prisdata DST/8var_est_res_tilpeter.xlsx
+++ b/Prisdata DST/8var_est_res_tilpeter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmuskaslund/Documents/GitHub/SpecialeJR /Prisdata DST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BA8A50-0F6F-3941-AAFE-2334423DA312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F464D484-CBCC-AA4D-B85A-A39A6286CD33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28000" yWindow="-4540" windowWidth="29060" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Habitform, acorr" sheetId="1" r:id="rId1"/>
@@ -283,8 +283,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -348,17 +350,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -373,19 +369,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -717,57 +727,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -775,56 +785,56 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="K2" s="8" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="K2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="18">
         <v>3.277006255624542E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="18">
         <v>3.7470597602728396E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="18">
         <v>6.3281789501822019E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="18">
         <v>8.6514554056854848E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="18">
         <v>2.2690083739722453E-2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="18">
         <v>0.27060236207202509</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="18">
         <v>0.26578040386502788</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="18">
         <v>0.22089014660557396</v>
       </c>
       <c r="K3" t="s">
@@ -859,55 +869,55 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="18">
         <v>13286.873556749786</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="18">
         <v>28421.336190420243</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="18">
         <v>67885.297605661079</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="18">
         <v>29022.422817521223</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="18">
         <v>4822.0959383453901</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="18">
         <v>9146.5877615115496</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="18">
         <v>10200.340056244158</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="18">
         <v>27039.190235631191</v>
       </c>
       <c r="K4" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="5">
         <v>9424.6792307692303</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="5">
         <v>20987.621923076924</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="5">
         <v>40776.648461538454</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="5">
         <v>13791.05769230769</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="5">
         <v>4284.9615384615381</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="5">
         <v>16147.637692307693</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="5">
         <v>33754.158461538464</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="5">
         <v>36255.638076923082</v>
       </c>
     </row>
@@ -915,70 +925,70 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="18">
         <v>-0.11703043570507643</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="18">
         <v>-8.5656787920445066E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="18">
         <v>6.0352782817697938E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="18">
         <v>-0.46692109001066806</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="18">
         <v>0.29302549905467512</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="18">
         <v>0.11906219361496441</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="18">
         <v>0.41296842443130721</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="18">
         <v>0.36021182836355764</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="18">
         <v>0.91228136325644726</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="18">
         <v>0.91228136325644726</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="18">
         <v>0.91228136325644726</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="18">
         <v>0.91228136325644726</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="18">
         <v>0.91228136325644726</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="18">
         <v>0.91228136325644726</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="18">
         <v>0.91228136325644726</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="18">
         <v>0.91228136325644726</v>
       </c>
       <c r="K6" t="s">
@@ -1013,41 +1023,41 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="19">
         <v>1</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="K7" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="5">
         <v>12962.734999999999</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="5">
         <v>27088.216923076925</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="5">
         <v>59548.586923076924</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="5">
         <v>19424.670384615387</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="5">
         <v>8260.2696153846173</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="5">
         <v>30633.200000000008</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="5">
         <v>51833.43230769231</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="5">
         <v>58984.964230769234</v>
       </c>
     </row>
@@ -1055,70 +1065,70 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="18">
         <v>2.6004043038357384E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="18">
         <v>5.3179729389964993E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="18">
         <v>0.12202834370868003</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="18">
         <v>6.3699606048028351E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="18">
         <v>3.7103056234259704E-2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="18">
         <v>0.22957576916523742</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="18">
         <v>0.240415005622934</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="18">
         <v>0.22799444679253811</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="18">
         <v>2562.3902450052228</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="18">
         <v>-837.58168441914734</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="18">
         <v>19090.521859477602</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="18">
         <v>4342.5220482264695</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="18">
         <v>556.43752630752203</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="18">
         <v>-1263.5583632839307</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="18">
         <v>4130.432776075434</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="18">
         <v>2858.4663764724505</v>
       </c>
       <c r="K9" t="s">
@@ -1153,55 +1163,55 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="18">
         <v>0.67489188106463305</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="18">
         <v>0.94997941412059517</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="18">
         <v>0.53645603962314059</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="18">
         <v>0.61260070654009569</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="18">
         <v>0.64165032322037929</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="18">
         <v>0.65361971117165818</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="18">
         <v>0.68035200062825218</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="18">
         <v>0.75758398858564313</v>
       </c>
       <c r="K10" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="5">
         <v>16520.116538461538</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="5">
         <v>34191.403846153844</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="5">
         <v>91859.692307692312</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="5">
         <v>24571.922307692312</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="5">
         <v>12080.646153846154</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="5">
         <v>58401.163461538454</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="5">
         <v>85478.587307692302</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="5">
         <v>93648.912307692299</v>
       </c>
     </row>
@@ -1209,55 +1219,55 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="18">
         <v>-0.18394458357531798</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="18">
         <v>-0.18394458357531798</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="18">
         <v>-0.18394458357531798</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="18">
         <v>-0.18394458357531798</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="18">
         <v>-0.18394458357531798</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="18">
         <v>-0.18394458357531798</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="18">
         <v>-0.18394458357531798</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="18">
         <v>-0.18394458357531798</v>
       </c>
       <c r="K11" t="s">
         <v>76</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="5">
         <v>16520.116538461538</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="5">
         <v>34191.403846153844</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="5">
         <v>91859.692307692312</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="5">
         <v>24571.922307692312</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="5">
         <v>12080.646153846154</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="5">
         <v>58401.163461538454</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="5">
         <v>85478.587307692302</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="5">
         <v>93648.912307692299</v>
       </c>
     </row>
@@ -1265,43 +1275,43 @@
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="19">
         <v>2</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="18">
         <v>3.5058117952763562E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="18">
         <v>8.7881283607926977E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="18">
         <v>0.12105267932475194</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="18">
         <v>5.3734136039412288E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="18">
         <v>5.5126982173045201E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="18">
         <v>0.19356977947266976</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="18">
         <v>0.35354438043738634</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="18">
         <v>0.10003264099204393</v>
       </c>
     </row>
@@ -1309,28 +1319,28 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="18">
         <v>4628.1604495216006</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="18">
         <v>3509.9672813481452</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="18">
         <v>18302.446350632974</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="18">
         <v>18538.372594433302</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="18">
         <v>1006.9368173925515</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="18">
         <v>-379.01775993084573</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="18">
         <v>3156.075711212477</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="18">
         <v>-96.188758345115261</v>
       </c>
     </row>
@@ -1338,28 +1348,28 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="18">
         <v>0.58867770276956233</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="18">
         <v>0.82675082092636121</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="18">
         <v>0.65434281205921629</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="18">
         <v>4.0839648739751683E-2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="18">
         <v>0.72709908813123547</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="18">
         <v>0.94449566103433635</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="18">
         <v>0.83775714443196725</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="18">
         <v>0.99283143200026891</v>
       </c>
     </row>
@@ -1367,28 +1377,28 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="18">
         <v>-0.25484131470495924</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="18">
         <v>-0.25484131470495924</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="18">
         <v>-0.25484131470495924</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="18">
         <v>-0.25484131470495924</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="18">
         <v>-0.25484131470495924</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="18">
         <v>-0.25484131470495924</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="18">
         <v>-0.25484131470495924</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="18">
         <v>-0.25484131470495924</v>
       </c>
     </row>
@@ -1396,43 +1406,43 @@
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="19">
         <v>3</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="18">
         <v>1.922325848062547E-2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="18">
         <v>4.4034397238916695E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="18">
         <v>5.6001791683973616E-2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="18">
         <v>2.3961645792103196E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="18">
         <v>4.1660622544903825E-2</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="18">
         <v>0.30998691881537582</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="18">
         <v>0.29710245395645773</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="18">
         <v>0.2080289114876436</v>
       </c>
     </row>
@@ -1440,28 +1450,28 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="18">
         <v>3679.0672899506794</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="18">
         <v>3379.8097417651734</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="18">
         <v>11405.380241289709</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="18">
         <v>16960.837691890552</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="18">
         <v>505.25423573010784</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="18">
         <v>1399.6451135216776</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="18">
         <v>5078.8255992197746</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="18">
         <v>-2681.8046138839595</v>
       </c>
     </row>
@@ -1469,28 +1479,28 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="18">
         <v>0.64106997468751881</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="18">
         <v>0.8052472938927433</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="18">
         <v>0.77259435627074724</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="18">
         <v>0.15629818129822537</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="18">
         <v>0.692269540419853</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="18">
         <v>0.40294615393522298</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="18">
         <v>0.61800110759322036</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="18">
         <v>0.92984429304791549</v>
       </c>
     </row>
@@ -1498,28 +1508,28 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="18">
         <v>-4.7748268456811807E-2</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="18">
         <v>-4.7748268456811807E-2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="18">
         <v>-4.7748268456811807E-2</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="18">
         <v>-4.7748268456811807E-2</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="18">
         <v>-4.7748268456811807E-2</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="18">
         <v>-4.7748268456811807E-2</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="18">
         <v>-4.7748268456811807E-2</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="18">
         <v>-4.7748268456811807E-2</v>
       </c>
     </row>
@@ -1527,16 +1537,16 @@
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="13">
         <v>4</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1658,16 +1668,16 @@
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="13">
         <v>5</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1789,16 +1799,16 @@
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="13">
         <v>6</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1920,16 +1930,16 @@
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="13">
         <v>7</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -2051,16 +2061,16 @@
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="13">
         <v>8</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -2151,16 +2161,16 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
-      <c r="B46" s="5">
+      <c r="B46" s="13">
         <v>9</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -2251,16 +2261,16 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
-      <c r="B50" s="5">
+      <c r="B50" s="13">
         <v>10</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -2382,48 +2392,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2458,45 +2468,45 @@
       <c r="A4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>9424.6792307692303</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>20987.621923076924</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>40776.648461538454</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>13791.05769230769</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>4284.9615384615381</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>16147.637692307693</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>33754.158461538464</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <v>36255.638076923082</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2531,45 +2541,45 @@
       <c r="A7" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>12962.734999999999</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>27088.216923076925</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>59548.586923076924</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>19424.670384615387</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>8260.2696153846173</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>30633.200000000008</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>51833.43230769231</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <v>58984.964230769234</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2604,38 +2614,38 @@
       <c r="A10" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>16520.116538461538</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>34191.403846153844</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>91859.692307692312</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>24571.922307692312</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>12080.646153846154</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>58401.163461538454</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>85478.587307692302</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>93648.912307692299</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L11" s="1"/>
@@ -2648,14 +2658,14 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2666,129 +2676,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:U10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="64" x14ac:dyDescent="0.2">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="K2" s="8" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="K2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="20">
         <v>2.7374545806561724E-2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="20">
         <v>5.394010342480296E-2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="20">
         <v>0.11054862183912359</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="20">
         <v>4.1280066302596827E-2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="20">
         <v>1.9083633771316919E-2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="20">
         <v>0.24890312430351322</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="20">
         <v>0.2674125880857699</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="20">
         <v>0.23145731646631496</v>
       </c>
       <c r="K3" t="s">
@@ -2823,55 +2833,55 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="20">
         <v>4620.6552970215034</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="20">
         <v>2706.0585933204629</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="20">
         <v>-3491.2652337424215</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="20">
         <v>16913.897902741854</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="20">
         <v>509.81812832758987</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="20">
         <v>1504.8107676229752</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="20">
         <v>5588.9143377652654</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="20">
         <v>-6286.6211332183575</v>
       </c>
       <c r="K4" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="5">
         <v>9424.6792307692303</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="5">
         <v>20987.621923076924</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="5">
         <v>40776.648461538454</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="5">
         <v>13791.05769230769</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="5">
         <v>4284.9615384615381</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="5">
         <v>16147.637692307693</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="5">
         <v>33754.158461538464</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="5">
         <v>36255.638076923082</v>
       </c>
     </row>
@@ -2879,58 +2889,58 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="20">
         <v>0.62260160686193478</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="20">
         <v>0.8525662914577754</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="20">
         <v>1.0028065381603672</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="20">
         <v>0.21751702796142436</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="20">
         <v>0.86560275837531453</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="20">
         <v>0.72318122841879262</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="20">
         <v>0.75191480999215532</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="20">
         <v>1.0013351241695141</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
       <c r="K6" t="s">
         <v>75</v>
       </c>
@@ -2963,55 +2973,55 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="20">
         <v>2.4604799588786658E-2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="20">
         <v>5.4921573175115562E-2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="20">
         <v>0.13020451300375066</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="20">
         <v>7.626780908828841E-2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="20">
         <v>2.5717559593745193E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="20">
         <v>0.21505805582756185</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="20">
         <v>0.24573421597769693</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="20">
         <v>0.22749147374505468</v>
       </c>
       <c r="K7" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="5">
         <v>12962.734999999999</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="5">
         <v>27088.216923076925</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="5">
         <v>59548.586923076924</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="5">
         <v>19424.670384615387</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="5">
         <v>8260.2696153846173</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="5">
         <v>30633.200000000008</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="5">
         <v>51833.43230769231</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="5">
         <v>58984.964230769234</v>
       </c>
     </row>
@@ -3019,70 +3029,70 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="20">
         <v>3638.9706678739799</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="20">
         <v>1109.4820665550487</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="20">
         <v>23510.655231772762</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="20">
         <v>5942.773825629909</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="20">
         <v>932.49800022702038</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="20">
         <v>5541.2381878502483</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="20">
         <v>10608.356203647783</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="20">
         <v>7854.0895336727344</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="20">
         <v>0.62714028956124945</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="20">
         <v>0.91485077264216164</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="20">
         <v>0.49444220815392426</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="20">
         <v>0.58332113933709206</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="20">
         <v>0.73739704527859806</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="20">
         <v>0.53558490037502693</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="20">
         <v>0.61827962235195366</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="20">
         <v>0.73795711105240125</v>
       </c>
       <c r="K9" t="s">
@@ -3114,44 +3124,44 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="21">
         <v>2</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
       <c r="K10" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="5">
         <v>16520.116538461538</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="5">
         <v>34191.403846153844</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="5">
         <v>91859.692307692312</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="5">
         <v>24571.922307692312</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="5">
         <v>12080.646153846154</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="5">
         <v>58401.163461538454</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="5">
         <v>85478.587307692302</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="5">
         <v>93648.912307692299</v>
       </c>
     </row>
@@ -3159,65 +3169,65 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="20">
         <v>3.6440697146787569E-2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="20">
         <v>8.4753689843880764E-2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="20">
         <v>0.13826047828930418</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="20">
         <v>4.7748009514081806E-2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="20">
         <v>4.4422934431747801E-2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="20">
         <v>0.176367392683901</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="20">
         <v>0.36425207331781756</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="20">
         <v>0.10775472477247931</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="20">
         <v>4546.7473483566091</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="20">
         <v>4905.7462834237049</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="20">
         <v>24190.424511574689</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="20">
         <v>19754.903840812396</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="20">
         <v>1548.5549632158607</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="20">
         <v>2189.575181322939</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="20">
         <v>6790.4311796772317</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="20">
         <v>1169.4104185115862</v>
       </c>
     </row>
@@ -3225,72 +3235,72 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="20">
         <v>0.60010842395299036</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="20">
         <v>0.78018952668691433</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="20">
         <v>0.54922778921636528</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="20">
         <v>-1.6697799071502911E-2</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="20">
         <v>0.65478158202218717</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="20">
         <v>0.80133150923103436</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="20">
         <v>0.74704835895991295</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="20">
         <v>0.96371470446519136</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="21">
         <v>3</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="20">
         <v>1.6169883641368645E-2</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="20">
         <v>3.6798392157578276E-2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="20">
         <v>7.0240167955129759E-2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="20">
         <v>2.7141813409538352E-2</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="20">
         <v>3.6947868969904513E-2</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="20">
         <v>0.32205273454213962</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="20">
         <v>0.28375679689325933</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="20">
         <v>0.20689234243108146</v>
       </c>
     </row>
@@ -3298,28 +3308,28 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="20">
         <v>3837.8488515388713</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="20">
         <v>3408.8367445283575</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="20">
         <v>12574.704078123992</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="20">
         <v>17330.805261672383</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="20">
         <v>826.95360010798618</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="20">
         <v>3014.4933319691727</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="20">
         <v>7398.8310619494932</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="20">
         <v>-1670.5848635839532</v>
       </c>
     </row>
@@ -3327,72 +3337,72 @@
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="20">
         <v>0.64235350126795299</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="20">
         <v>0.82048673014018936</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="20">
         <v>0.74904718360298017</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="20">
         <v>0.13720486196946005</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="20">
         <v>0.68511975063451303</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="20">
         <v>0.3600902472303128</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="20">
         <v>0.594173781035227</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="20">
         <v>0.92418856505713476</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="21">
         <v>4</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="20">
         <v>2.341805937686707E-2</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="20">
         <v>8.5998941355985126E-2</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="20">
         <v>8.617074315455607E-2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="20">
         <v>1.6874466785577514E-2</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="20">
         <v>3.1213609237287936E-2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="20">
         <v>0.29650238120665257</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="20">
         <v>0.23916824469408302</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="20">
         <v>0.2206535541889908</v>
       </c>
     </row>
@@ -3400,28 +3410,28 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="20">
         <v>5238.7156094793845</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="20">
         <v>4756.7098886300328</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="20">
         <v>20001.460356528361</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="20">
         <v>10204.855436088075</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="20">
         <v>447.11128328149545</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="20">
         <v>3623.6724100842725</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="20">
         <v>7081.2717320200172</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="20">
         <v>776.63958390606354</v>
       </c>
     </row>
@@ -3429,45 +3439,45 @@
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="20">
         <v>0.56799581415174438</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="20">
         <v>0.75288141198952907</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="20">
         <v>0.65363884699418107</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="20">
         <v>0.52894695473593589</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="20">
         <v>0.82583797641416279</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="20">
         <v>0.52376703113627265</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="20">
         <v>0.71471164580042157</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="20">
         <v>0.88999627929267744</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="16">
         <v>5</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -3557,19 +3567,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="16">
         <v>6</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -3659,19 +3669,19 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="16">
         <v>7</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -3761,19 +3771,19 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="16">
         <v>8</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -3863,19 +3873,19 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="16">
         <v>9</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -3965,19 +3975,19 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="16">
         <v>10</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -4068,18 +4078,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B26:I26"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4090,7 +4100,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:U10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4104,87 +4114,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="64" x14ac:dyDescent="0.2">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="K2" s="8" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="K2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -4273,28 +4283,28 @@
       <c r="K4" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="5">
         <v>9424.6792307692303</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="5">
         <v>20987.621923076924</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="5">
         <v>40776.648461538454</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="5">
         <v>13791.05769230769</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="5">
         <v>4284.9615384615381</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="5">
         <v>16147.637692307693</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="5">
         <v>33754.158461538464</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="5">
         <v>36255.638076923082</v>
       </c>
     </row>
@@ -4326,34 +4336,34 @@
       <c r="I5" s="1">
         <v>0.95242833893901269</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="K6" t="s">
         <v>75</v>
       </c>
@@ -4413,28 +4423,28 @@
       <c r="K7" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="5">
         <v>12962.734999999999</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="5">
         <v>27088.216923076925</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="5">
         <v>59548.586923076924</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="5">
         <v>19424.670384615387</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="5">
         <v>8260.2696153846173</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="5">
         <v>30633.200000000008</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="5">
         <v>51833.43230769231</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="5">
         <v>58984.964230769234</v>
       </c>
     </row>
@@ -4466,19 +4476,19 @@
       <c r="I8" s="1">
         <v>14531.970003399656</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -4537,44 +4547,44 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="16">
         <v>2</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
       <c r="K10" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="5">
         <v>16520.116538461538</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="5">
         <v>34191.403846153844</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="5">
         <v>91859.692307692312</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="5">
         <v>24571.922307692312</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="5">
         <v>12080.646153846154</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="5">
         <v>58401.163461538454</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="5">
         <v>85478.587307692302</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="5">
         <v>93648.912307692299</v>
       </c>
     </row>
@@ -4666,19 +4676,19 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <v>3</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4768,19 +4778,19 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="16">
         <v>4</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -4870,19 +4880,19 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="16">
         <v>5</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -4972,19 +4982,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="16">
         <v>6</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -5074,19 +5084,19 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="16">
         <v>7</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -5176,19 +5186,19 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="16">
         <v>8</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -5278,19 +5288,19 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="16">
         <v>9</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -5380,19 +5390,19 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="16">
         <v>10</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -5483,11 +5493,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B2:I2"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="B42:I42"/>
     <mergeCell ref="B38:I38"/>
@@ -5495,6 +5500,11 @@
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5519,87 +5529,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="64" x14ac:dyDescent="0.2">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="K2" s="8" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="K2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -5688,58 +5698,58 @@
       <c r="K4" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="5">
         <v>9424.6792307692303</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="5">
         <v>20987.621923076924</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="5">
         <v>40776.648461538454</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="5">
         <v>13791.05769230769</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="5">
         <v>4284.9615384615381</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="5">
         <v>16147.637692307693</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="5">
         <v>33754.158461538464</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="5">
         <v>36255.638076923082</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="K5" s="8" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="K5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -5828,58 +5838,58 @@
       <c r="K7" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="5">
         <v>12962.734999999999</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="5">
         <v>27088.216923076925</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="5">
         <v>59548.586923076924</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="5">
         <v>19424.670384615387</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="5">
         <v>8260.2696153846173</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="5">
         <v>30633.200000000008</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="5">
         <v>51833.43230769231</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="5">
         <v>58984.964230769234</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="16">
         <v>2</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="K8" s="8" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="K8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -5968,45 +5978,45 @@
       <c r="K10" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="5">
         <v>16520.116538461538</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="5">
         <v>34191.403846153844</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="5">
         <v>91859.692307692312</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="5">
         <v>24571.922307692312</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="5">
         <v>12080.646153846154</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="5">
         <v>58401.163461538454</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="5">
         <v>85478.587307692302</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="5">
         <v>93648.912307692299</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="16">
         <v>3</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -6067,19 +6077,19 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <v>4</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -6140,19 +6150,19 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="16">
         <v>5</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -6213,19 +6223,19 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="16">
         <v>6</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -6286,19 +6296,19 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="16">
         <v>7</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -6359,19 +6369,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="16">
         <v>8</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -6432,19 +6442,19 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="16">
         <v>9</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -6505,19 +6515,19 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="16">
         <v>10</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -6579,11 +6589,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B2:I2"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="B32:I32"/>
     <mergeCell ref="B29:I29"/>
@@ -6591,6 +6596,11 @@
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
